--- a/recursos/datos.xlsx
+++ b/recursos/datos.xlsx
@@ -7,17 +7,67 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 2" sheetId="2" r:id="rId5"/>
+    <sheet name="Hoja 3" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Y1 = sin(x)</t>
+  </si>
+  <si>
+    <t>Y2 = cos(x)</t>
+  </si>
+  <si>
+    <t>Y3 = 1-sin(x)^2</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Beto</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Gaby</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Ivan</t>
   </si>
 </sst>
 </file>
@@ -27,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -38,16 +88,34 @@
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -70,13 +138,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -90,6 +248,51 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -110,6 +313,9 @@
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1444,4 +1650,456 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.3516" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="5" customWidth="1"/>
+    <col min="5" max="256" width="16.3516" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.55" customHeight="1">
+      <c r="A1" t="s" s="6">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="20.55" customHeight="1">
+      <c r="A2" s="7">
+        <v>-3.5</v>
+      </c>
+      <c r="B2" s="8">
+        <f>SIN(A2)</f>
+        <v>0.3507832276896198</v>
+      </c>
+      <c r="C2" s="9">
+        <f>COS(A2)</f>
+        <v>-0.9364566872907963</v>
+      </c>
+      <c r="D2" s="9">
+        <f>1-B2^2</f>
+        <v>0.8769511271716524</v>
+      </c>
+    </row>
+    <row r="3" ht="20.35" customHeight="1">
+      <c r="A3" s="10">
+        <f>A2+0.5</f>
+        <v>-3</v>
+      </c>
+      <c r="B3" s="11">
+        <f>SIN(A3)</f>
+        <v>-0.1411200080598672</v>
+      </c>
+      <c r="C3" s="4">
+        <f>COS(A3)</f>
+        <v>-0.9899924966004454</v>
+      </c>
+      <c r="D3" s="4">
+        <f>1-B3^2</f>
+        <v>0.980085143325183</v>
+      </c>
+    </row>
+    <row r="4" ht="20.35" customHeight="1">
+      <c r="A4" s="10">
+        <f>A3+0.5</f>
+        <v>-2.5</v>
+      </c>
+      <c r="B4" s="11">
+        <f>SIN(A4)</f>
+        <v>-0.5984721441039564</v>
+      </c>
+      <c r="C4" s="4">
+        <f>COS(A4)</f>
+        <v>-0.8011436155469337</v>
+      </c>
+      <c r="D4" s="4">
+        <f>1-B4^2</f>
+        <v>0.6418310927316132</v>
+      </c>
+    </row>
+    <row r="5" ht="20.35" customHeight="1">
+      <c r="A5" s="10">
+        <f>A4+0.5</f>
+        <v>-2</v>
+      </c>
+      <c r="B5" s="11">
+        <f>SIN(A5)</f>
+        <v>-0.9092974268256817</v>
+      </c>
+      <c r="C5" s="4">
+        <f>COS(A5)</f>
+        <v>-0.4161468365471424</v>
+      </c>
+      <c r="D5" s="4">
+        <f>1-B5^2</f>
+        <v>0.173178189568194</v>
+      </c>
+    </row>
+    <row r="6" ht="20.35" customHeight="1">
+      <c r="A6" s="10">
+        <f>A5+0.5</f>
+        <v>-1.5</v>
+      </c>
+      <c r="B6" s="11">
+        <f>SIN(A6)</f>
+        <v>-0.9974949866040544</v>
+      </c>
+      <c r="C6" s="4">
+        <f>COS(A6)</f>
+        <v>0.07073720166770291</v>
+      </c>
+      <c r="D6" s="4">
+        <f>1-B6^2</f>
+        <v>0.005003751699777292</v>
+      </c>
+    </row>
+    <row r="7" ht="20.35" customHeight="1">
+      <c r="A7" s="10">
+        <f>A6+0.5</f>
+        <v>-1</v>
+      </c>
+      <c r="B7" s="11">
+        <f>SIN(A7)</f>
+        <v>-0.8414709848078965</v>
+      </c>
+      <c r="C7" s="4">
+        <f>COS(A7)</f>
+        <v>0.5403023058681398</v>
+      </c>
+      <c r="D7" s="4">
+        <f>1-B7^2</f>
+        <v>0.2919265817264288</v>
+      </c>
+    </row>
+    <row r="8" ht="20.35" customHeight="1">
+      <c r="A8" s="10">
+        <f>A7+0.5</f>
+        <v>-0.5</v>
+      </c>
+      <c r="B8" s="11">
+        <f>SIN(A8)</f>
+        <v>-0.479425538604203</v>
+      </c>
+      <c r="C8" s="4">
+        <f>COS(A8)</f>
+        <v>0.8775825618903728</v>
+      </c>
+      <c r="D8" s="4">
+        <f>1-B8^2</f>
+        <v>0.7701511529340699</v>
+      </c>
+    </row>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="A9" s="10">
+        <f>A8+0.5</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="11">
+        <f>SIN(A9)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <f>COS(A9)</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <f>1-B9^2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="20.35" customHeight="1">
+      <c r="A10" s="10">
+        <f>A9+0.5</f>
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="11">
+        <f>SIN(A10)</f>
+        <v>0.479425538604203</v>
+      </c>
+      <c r="C10" s="4">
+        <f>COS(A10)</f>
+        <v>0.8775825618903728</v>
+      </c>
+      <c r="D10" s="4">
+        <f>1-B10^2</f>
+        <v>0.7701511529340699</v>
+      </c>
+    </row>
+    <row r="11" ht="20.35" customHeight="1">
+      <c r="A11" s="10">
+        <f>A10+0.5</f>
+        <v>1</v>
+      </c>
+      <c r="B11" s="11">
+        <f>SIN(A11)</f>
+        <v>0.8414709848078965</v>
+      </c>
+      <c r="C11" s="4">
+        <f>COS(A11)</f>
+        <v>0.5403023058681398</v>
+      </c>
+      <c r="D11" s="4">
+        <f>1-B11^2</f>
+        <v>0.2919265817264288</v>
+      </c>
+    </row>
+    <row r="12" ht="20.35" customHeight="1">
+      <c r="A12" s="10">
+        <f>A11+0.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="B12" s="11">
+        <f>SIN(A12)</f>
+        <v>0.9974949866040544</v>
+      </c>
+      <c r="C12" s="4">
+        <f>COS(A12)</f>
+        <v>0.07073720166770291</v>
+      </c>
+      <c r="D12" s="4">
+        <f>1-B12^2</f>
+        <v>0.005003751699777292</v>
+      </c>
+    </row>
+    <row r="13" ht="20.35" customHeight="1">
+      <c r="A13" s="10">
+        <f>A12+0.5</f>
+        <v>2</v>
+      </c>
+      <c r="B13" s="11">
+        <f>SIN(A13)</f>
+        <v>0.9092974268256817</v>
+      </c>
+      <c r="C13" s="4">
+        <f>COS(A13)</f>
+        <v>-0.4161468365471424</v>
+      </c>
+      <c r="D13" s="4">
+        <f>1-B13^2</f>
+        <v>0.173178189568194</v>
+      </c>
+    </row>
+    <row r="14" ht="20.35" customHeight="1">
+      <c r="A14" s="10">
+        <f>A13+0.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="B14" s="11">
+        <f>SIN(A14)</f>
+        <v>0.5984721441039564</v>
+      </c>
+      <c r="C14" s="4">
+        <f>COS(A14)</f>
+        <v>-0.8011436155469337</v>
+      </c>
+      <c r="D14" s="4">
+        <f>1-B14^2</f>
+        <v>0.6418310927316132</v>
+      </c>
+    </row>
+    <row r="15" ht="20.35" customHeight="1">
+      <c r="A15" s="10">
+        <f>A14+0.5</f>
+        <v>3</v>
+      </c>
+      <c r="B15" s="11">
+        <f>SIN(A15)</f>
+        <v>0.1411200080598672</v>
+      </c>
+      <c r="C15" s="4">
+        <f>COS(A15)</f>
+        <v>-0.9899924966004454</v>
+      </c>
+      <c r="D15" s="4">
+        <f>1-B15^2</f>
+        <v>0.980085143325183</v>
+      </c>
+    </row>
+    <row r="16" ht="20.35" customHeight="1">
+      <c r="A16" s="10">
+        <f>A15+0.5</f>
+        <v>3.5</v>
+      </c>
+      <c r="B16" s="11">
+        <f>SIN(A16)</f>
+        <v>-0.3507832276896198</v>
+      </c>
+      <c r="C16" s="4">
+        <f>COS(A16)</f>
+        <v>-0.9364566872907963</v>
+      </c>
+      <c r="D16" s="4">
+        <f>1-B16^2</f>
+        <v>0.8769511271716524</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.3516" style="12" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="12" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.55" customHeight="1">
+      <c r="A1" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s" s="13">
+        <v>6</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" ht="20.55" customHeight="1">
+      <c r="A2" t="s" s="15">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s" s="16">
+        <v>8</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" ht="20.35" customHeight="1">
+      <c r="A3" t="s" s="18">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="19">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" ht="20.35" customHeight="1">
+      <c r="A4" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s" s="19">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" ht="20.35" customHeight="1">
+      <c r="A5" t="s" s="18">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s" s="19">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="20.35" customHeight="1">
+      <c r="A6" t="s" s="18">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s" s="19">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="20.35" customHeight="1">
+      <c r="A7" t="s" s="18">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s" s="19">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" ht="20.35" customHeight="1">
+      <c r="A8" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s" s="19">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="A9" t="s" s="18">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s" s="19">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="20.35" customHeight="1">
+      <c r="A10" t="s" s="18">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="19">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/recursos/datos.xlsx
+++ b/recursos/datos.xlsx
@@ -9,12 +9,14 @@
     <sheet name="Hoja 1" sheetId="1" r:id="rId4"/>
     <sheet name="Hoja 2" sheetId="2" r:id="rId5"/>
     <sheet name="Hoja 3" sheetId="3" r:id="rId6"/>
+    <sheet name="Hoja 4" sheetId="4" r:id="rId7"/>
+    <sheet name="Hoja 5" sheetId="5" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>X</t>
   </si>
@@ -69,13 +71,32 @@
   <si>
     <t>Ivan</t>
   </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>Muestra A</t>
+  </si>
+  <si>
+    <t>Cinemex</t>
+  </si>
+  <si>
+    <t>Cinepolis</t>
+  </si>
+  <si>
+    <t>Lumier</t>
+  </si>
+  <si>
+    <t>Cineteca</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="mmmm"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -234,7 +255,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -293,6 +314,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="2" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="2" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2102,4 +2135,1110 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.3516" style="20" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="20" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="20" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="20" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="20" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.55" customHeight="1">
+      <c r="A1" t="s" s="13">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s" s="13">
+        <v>19</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" ht="20.55" customHeight="1">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <f t="shared" si="0" ref="B2:B60">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" ht="20.35" customHeight="1">
+      <c r="A3" s="10">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" ht="20.35" customHeight="1">
+      <c r="A4" s="10">
+        <f>A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" ht="20.35" customHeight="1">
+      <c r="A5" s="10">
+        <f>A4+1</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="20.35" customHeight="1">
+      <c r="A6" s="10">
+        <f>A5+1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="20.35" customHeight="1">
+      <c r="A7" s="10">
+        <f>A6+1</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" ht="20.35" customHeight="1">
+      <c r="A8" s="10">
+        <f>A7+1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="A9" s="10">
+        <f>A8+1</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="20.35" customHeight="1">
+      <c r="A10" s="10">
+        <f>A9+1</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" ht="20.35" customHeight="1">
+      <c r="A11" s="10">
+        <f>A10+1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" ht="20.35" customHeight="1">
+      <c r="A12" s="10">
+        <f>A11+1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" ht="20.35" customHeight="1">
+      <c r="A13" s="10">
+        <f>A12+1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" ht="20.35" customHeight="1">
+      <c r="A14" s="10">
+        <f>A13+1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" ht="20.35" customHeight="1">
+      <c r="A15" s="10">
+        <f>A14+1</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" ht="20.35" customHeight="1">
+      <c r="A16" s="10">
+        <f>A15+1</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" ht="20.35" customHeight="1">
+      <c r="A17" s="10">
+        <f>A16+1</f>
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" ht="20.35" customHeight="1">
+      <c r="A18" s="10">
+        <f>A17+1</f>
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" ht="20.35" customHeight="1">
+      <c r="A19" s="10">
+        <f>A18+1</f>
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" ht="20.35" customHeight="1">
+      <c r="A20" s="10">
+        <f>A19+1</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" ht="20.35" customHeight="1">
+      <c r="A21" s="10">
+        <f>A20+1</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" ht="20.35" customHeight="1">
+      <c r="A22" s="10">
+        <f>A21+1</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" ht="20.35" customHeight="1">
+      <c r="A23" s="10">
+        <f>A22+1</f>
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" ht="20.35" customHeight="1">
+      <c r="A24" s="10">
+        <f>A23+1</f>
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" ht="20.35" customHeight="1">
+      <c r="A25" s="10">
+        <f>A24+1</f>
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" ht="20.35" customHeight="1">
+      <c r="A26" s="10">
+        <f>A25+1</f>
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" ht="20.35" customHeight="1">
+      <c r="A27" s="10">
+        <f>A26+1</f>
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" ht="20.35" customHeight="1">
+      <c r="A28" s="10">
+        <f>A27+1</f>
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" ht="20.35" customHeight="1">
+      <c r="A29" s="10">
+        <f>A28+1</f>
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" ht="20.35" customHeight="1">
+      <c r="A30" s="10">
+        <f>A29+1</f>
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" ht="20.35" customHeight="1">
+      <c r="A31" s="10">
+        <f>A30+1</f>
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" ht="20.35" customHeight="1">
+      <c r="A32" s="10">
+        <f>A31+1</f>
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" ht="20.35" customHeight="1">
+      <c r="A33" s="10">
+        <f>A32+1</f>
+        <v>32</v>
+      </c>
+      <c r="B33" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" ht="20.35" customHeight="1">
+      <c r="A34" s="10">
+        <f>A33+1</f>
+        <v>33</v>
+      </c>
+      <c r="B34" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" ht="20.35" customHeight="1">
+      <c r="A35" s="10">
+        <f>A34+1</f>
+        <v>34</v>
+      </c>
+      <c r="B35" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" ht="20.35" customHeight="1">
+      <c r="A36" s="10">
+        <f>A35+1</f>
+        <v>35</v>
+      </c>
+      <c r="B36" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" ht="20.35" customHeight="1">
+      <c r="A37" s="10">
+        <f>A36+1</f>
+        <v>36</v>
+      </c>
+      <c r="B37" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" ht="20.35" customHeight="1">
+      <c r="A38" s="10">
+        <f>A37+1</f>
+        <v>37</v>
+      </c>
+      <c r="B38" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" ht="20.35" customHeight="1">
+      <c r="A39" s="10">
+        <f>A38+1</f>
+        <v>38</v>
+      </c>
+      <c r="B39" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" ht="20.35" customHeight="1">
+      <c r="A40" s="10">
+        <f>A39+1</f>
+        <v>39</v>
+      </c>
+      <c r="B40" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" ht="20.35" customHeight="1">
+      <c r="A41" s="10">
+        <f>A40+1</f>
+        <v>40</v>
+      </c>
+      <c r="B41" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" ht="20.35" customHeight="1">
+      <c r="A42" s="10">
+        <f>A41+1</f>
+        <v>41</v>
+      </c>
+      <c r="B42" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" ht="20.35" customHeight="1">
+      <c r="A43" s="10">
+        <f>A42+1</f>
+        <v>42</v>
+      </c>
+      <c r="B43" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" ht="20.35" customHeight="1">
+      <c r="A44" s="10">
+        <f>A43+1</f>
+        <v>43</v>
+      </c>
+      <c r="B44" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" ht="20.35" customHeight="1">
+      <c r="A45" s="10">
+        <f>A44+1</f>
+        <v>44</v>
+      </c>
+      <c r="B45" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" ht="20.35" customHeight="1">
+      <c r="A46" s="10">
+        <f>A45+1</f>
+        <v>45</v>
+      </c>
+      <c r="B46" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" ht="20.35" customHeight="1">
+      <c r="A47" s="10">
+        <f>A46+1</f>
+        <v>46</v>
+      </c>
+      <c r="B47" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" ht="20.35" customHeight="1">
+      <c r="A48" s="10">
+        <f>A47+1</f>
+        <v>47</v>
+      </c>
+      <c r="B48" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" ht="20.35" customHeight="1">
+      <c r="A49" s="10">
+        <f>A48+1</f>
+        <v>48</v>
+      </c>
+      <c r="B49" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" ht="20.35" customHeight="1">
+      <c r="A50" s="10">
+        <f>A49+1</f>
+        <v>49</v>
+      </c>
+      <c r="B50" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" ht="20.35" customHeight="1">
+      <c r="A51" s="10">
+        <f>A50+1</f>
+        <v>50</v>
+      </c>
+      <c r="B51" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" ht="20.35" customHeight="1">
+      <c r="A52" s="10">
+        <f>A51+1</f>
+        <v>51</v>
+      </c>
+      <c r="B52" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" ht="20.35" customHeight="1">
+      <c r="A53" s="10">
+        <f>A52+1</f>
+        <v>52</v>
+      </c>
+      <c r="B53" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" ht="20.35" customHeight="1">
+      <c r="A54" s="10">
+        <f>A53+1</f>
+        <v>53</v>
+      </c>
+      <c r="B54" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" ht="20.35" customHeight="1">
+      <c r="A55" s="10">
+        <f>A54+1</f>
+        <v>54</v>
+      </c>
+      <c r="B55" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" ht="20.35" customHeight="1">
+      <c r="A56" s="10">
+        <f>A55+1</f>
+        <v>55</v>
+      </c>
+      <c r="B56" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" ht="20.35" customHeight="1">
+      <c r="A57" s="10">
+        <f>A56+1</f>
+        <v>56</v>
+      </c>
+      <c r="B57" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" ht="20.35" customHeight="1">
+      <c r="A58" s="10">
+        <f>A57+1</f>
+        <v>57</v>
+      </c>
+      <c r="B58" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" ht="20.35" customHeight="1">
+      <c r="A59" s="10">
+        <f>A58+1</f>
+        <v>58</v>
+      </c>
+      <c r="B59" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" ht="20.35" customHeight="1">
+      <c r="A60" s="10">
+        <f>A59+1</f>
+        <v>59</v>
+      </c>
+      <c r="B60" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.3516" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="21" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="21" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="21" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="21" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.55" customHeight="1">
+      <c r="A1" t="s" s="13">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s" s="13">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s" s="13">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" ht="20.55" customHeight="1">
+      <c r="A2" s="22">
+        <v>41274</v>
+      </c>
+      <c r="B2" s="8">
+        <f t="shared" si="0" ref="B2:E13">RANDBETWEEN(10000,100000)</f>
+        <v>97970</v>
+      </c>
+      <c r="C2" s="9">
+        <f t="shared" si="0"/>
+        <v>71190</v>
+      </c>
+      <c r="D2" s="9">
+        <f t="shared" si="0"/>
+        <v>74445</v>
+      </c>
+      <c r="E2" s="9">
+        <f t="shared" si="0"/>
+        <v>34036</v>
+      </c>
+    </row>
+    <row r="3" ht="20.35" customHeight="1">
+      <c r="A3" s="23">
+        <v>41305</v>
+      </c>
+      <c r="B3" s="11">
+        <f t="shared" si="0"/>
+        <v>56459</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" si="0"/>
+        <v>98098</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" si="0"/>
+        <v>23883</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" si="0"/>
+        <v>53890</v>
+      </c>
+    </row>
+    <row r="4" ht="20.35" customHeight="1">
+      <c r="A4" s="23">
+        <v>41333</v>
+      </c>
+      <c r="B4" s="11">
+        <f t="shared" si="0"/>
+        <v>90694</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>12393</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>93963</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>77977</v>
+      </c>
+    </row>
+    <row r="5" ht="20.35" customHeight="1">
+      <c r="A5" s="23">
+        <v>41364</v>
+      </c>
+      <c r="B5" s="11">
+        <f t="shared" si="0"/>
+        <v>57418</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>55911</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>57733</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>54424</v>
+      </c>
+    </row>
+    <row r="6" ht="20.35" customHeight="1">
+      <c r="A6" s="23">
+        <v>41394</v>
+      </c>
+      <c r="B6" s="11">
+        <f t="shared" si="0"/>
+        <v>14089</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>44683</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>86354</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>96896</v>
+      </c>
+    </row>
+    <row r="7" ht="20.35" customHeight="1">
+      <c r="A7" s="23">
+        <v>41425</v>
+      </c>
+      <c r="B7" s="11">
+        <f t="shared" si="0"/>
+        <v>96974</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>68729</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>52967</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>89486</v>
+      </c>
+    </row>
+    <row r="8" ht="20.35" customHeight="1">
+      <c r="A8" s="23">
+        <v>41455</v>
+      </c>
+      <c r="B8" s="11">
+        <f t="shared" si="0"/>
+        <v>39231</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>57552</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>54384</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>54403</v>
+      </c>
+    </row>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="A9" s="23">
+        <v>41486</v>
+      </c>
+      <c r="B9" s="11">
+        <f t="shared" si="0"/>
+        <v>86034</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>43642</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>23431</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>35750</v>
+      </c>
+    </row>
+    <row r="10" ht="20.35" customHeight="1">
+      <c r="A10" s="23">
+        <v>41517</v>
+      </c>
+      <c r="B10" s="11">
+        <f t="shared" si="0"/>
+        <v>62667</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>76337</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>59033</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>61482</v>
+      </c>
+    </row>
+    <row r="11" ht="20.35" customHeight="1">
+      <c r="A11" s="23">
+        <v>41547</v>
+      </c>
+      <c r="B11" s="11">
+        <f t="shared" si="0"/>
+        <v>70494</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>33188</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>83031</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>10576</v>
+      </c>
+    </row>
+    <row r="12" ht="20.35" customHeight="1">
+      <c r="A12" s="23">
+        <v>41578</v>
+      </c>
+      <c r="B12" s="11">
+        <f t="shared" si="0"/>
+        <v>57778</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>39627</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>11283</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>91479</v>
+      </c>
+    </row>
+    <row r="13" ht="20.35" customHeight="1">
+      <c r="A13" s="23">
+        <v>41608</v>
+      </c>
+      <c r="B13" s="11">
+        <f t="shared" si="0"/>
+        <v>29388</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>43234</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>96353</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>82639</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/recursos/datos.xlsx
+++ b/recursos/datos.xlsx
@@ -11,12 +11,13 @@
     <sheet name="Hoja 3" sheetId="3" r:id="rId6"/>
     <sheet name="Hoja 4" sheetId="4" r:id="rId7"/>
     <sheet name="Hoja 5" sheetId="5" r:id="rId8"/>
+    <sheet name="Hoja 6" sheetId="6" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>X</t>
   </si>
@@ -78,6 +79,9 @@
     <t>Muestra A</t>
   </si>
   <si>
+    <t>Mes</t>
+  </si>
+  <si>
     <t>Cinemex</t>
   </si>
   <si>
@@ -88,15 +92,71 @@
   </si>
   <si>
     <t>Cineteca</t>
+  </si>
+  <si>
+    <t>enero</t>
+  </si>
+  <si>
+    <t>febrero</t>
+  </si>
+  <si>
+    <t>marzo</t>
+  </si>
+  <si>
+    <t>abril</t>
+  </si>
+  <si>
+    <t>mayo</t>
+  </si>
+  <si>
+    <t>junio</t>
+  </si>
+  <si>
+    <t>julio</t>
+  </si>
+  <si>
+    <t>agosto</t>
+  </si>
+  <si>
+    <t>septiembre</t>
+  </si>
+  <si>
+    <t>octubre</t>
+  </si>
+  <si>
+    <t>noviembre</t>
+  </si>
+  <si>
+    <t>diciembre</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Ingresos</t>
+  </si>
+  <si>
+    <t>Gastos</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>Erica</t>
+  </si>
+  <si>
+    <t>Fabian</t>
+  </si>
+  <si>
+    <t>Ignacio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="mmmm"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -322,10 +382,10 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="2" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="2" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2175,7 +2235,7 @@
       </c>
       <c r="B2" s="8">
         <f t="shared" si="0" ref="B2:B60">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -2201,7 +2261,7 @@
       </c>
       <c r="B4" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2240,7 +2300,7 @@
       </c>
       <c r="B7" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2253,7 +2313,7 @@
       </c>
       <c r="B8" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2266,7 +2326,7 @@
       </c>
       <c r="B9" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2279,7 +2339,7 @@
       </c>
       <c r="B10" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2292,7 +2352,7 @@
       </c>
       <c r="B11" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2305,7 +2365,7 @@
       </c>
       <c r="B12" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2318,7 +2378,7 @@
       </c>
       <c r="B13" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2331,7 +2391,7 @@
       </c>
       <c r="B14" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2344,7 +2404,7 @@
       </c>
       <c r="B15" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2357,7 +2417,7 @@
       </c>
       <c r="B16" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2370,7 +2430,7 @@
       </c>
       <c r="B17" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2409,7 +2469,7 @@
       </c>
       <c r="B20" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2422,7 +2482,7 @@
       </c>
       <c r="B21" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2448,7 +2508,7 @@
       </c>
       <c r="B23" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2461,7 +2521,7 @@
       </c>
       <c r="B24" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -2474,7 +2534,7 @@
       </c>
       <c r="B25" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -2487,7 +2547,7 @@
       </c>
       <c r="B26" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -2500,7 +2560,7 @@
       </c>
       <c r="B27" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2513,7 +2573,7 @@
       </c>
       <c r="B28" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2552,7 +2612,7 @@
       </c>
       <c r="B31" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -2565,7 +2625,7 @@
       </c>
       <c r="B32" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2591,7 +2651,7 @@
       </c>
       <c r="B34" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -2604,7 +2664,7 @@
       </c>
       <c r="B35" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2643,7 +2703,7 @@
       </c>
       <c r="B38" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2656,7 +2716,7 @@
       </c>
       <c r="B39" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -2669,7 +2729,7 @@
       </c>
       <c r="B40" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -2682,7 +2742,7 @@
       </c>
       <c r="B41" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -2695,7 +2755,7 @@
       </c>
       <c r="B42" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -2721,7 +2781,7 @@
       </c>
       <c r="B44" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -2747,7 +2807,7 @@
       </c>
       <c r="B46" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -2760,7 +2820,7 @@
       </c>
       <c r="B47" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -2773,7 +2833,7 @@
       </c>
       <c r="B48" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2812,7 +2872,7 @@
       </c>
       <c r="B51" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2825,7 +2885,7 @@
       </c>
       <c r="B52" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2838,7 +2898,7 @@
       </c>
       <c r="B53" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2851,7 +2911,7 @@
       </c>
       <c r="B54" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2864,7 +2924,7 @@
       </c>
       <c r="B55" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2877,7 +2937,7 @@
       </c>
       <c r="B56" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2890,7 +2950,7 @@
       </c>
       <c r="B57" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2903,7 +2963,7 @@
       </c>
       <c r="B58" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2916,7 +2976,7 @@
       </c>
       <c r="B59" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2967,271 +3027,471 @@
   <sheetData>
     <row r="1" ht="20.55" customHeight="1">
       <c r="A1" t="s" s="13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s" s="13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s" s="13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s" s="13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s" s="13">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" s="22">
-        <v>41274</v>
+      <c r="A2" t="s" s="15">
+        <v>25</v>
       </c>
       <c r="B2" s="8">
         <f t="shared" si="0" ref="B2:E13">RANDBETWEEN(10000,100000)</f>
-        <v>97970</v>
+        <v>57623</v>
       </c>
       <c r="C2" s="9">
         <f t="shared" si="0"/>
-        <v>71190</v>
+        <v>35903</v>
       </c>
       <c r="D2" s="9">
         <f t="shared" si="0"/>
-        <v>74445</v>
+        <v>20710</v>
       </c>
       <c r="E2" s="9">
         <f t="shared" si="0"/>
-        <v>34036</v>
+        <v>81755</v>
       </c>
     </row>
     <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" s="23">
-        <v>41305</v>
+      <c r="A3" t="s" s="18">
+        <v>26</v>
       </c>
       <c r="B3" s="11">
         <f t="shared" si="0"/>
-        <v>56459</v>
+        <v>81135</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" si="0"/>
-        <v>98098</v>
+        <v>37528</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>23883</v>
+        <v>87553</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="0"/>
-        <v>53890</v>
+        <v>63115</v>
       </c>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="23">
-        <v>41333</v>
+      <c r="A4" t="s" s="18">
+        <v>27</v>
       </c>
       <c r="B4" s="11">
         <f t="shared" si="0"/>
-        <v>90694</v>
+        <v>91043</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="0"/>
-        <v>12393</v>
+        <v>93741</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>93963</v>
+        <v>85419</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>77977</v>
+        <v>48114</v>
       </c>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="23">
-        <v>41364</v>
+      <c r="A5" t="s" s="18">
+        <v>28</v>
       </c>
       <c r="B5" s="11">
         <f t="shared" si="0"/>
-        <v>57418</v>
+        <v>32988</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="0"/>
-        <v>55911</v>
+        <v>51794</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>57733</v>
+        <v>68512</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>54424</v>
+        <v>54110</v>
       </c>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="23">
-        <v>41394</v>
+      <c r="A6" t="s" s="18">
+        <v>29</v>
       </c>
       <c r="B6" s="11">
         <f t="shared" si="0"/>
-        <v>14089</v>
+        <v>33623</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="0"/>
-        <v>44683</v>
+        <v>68020</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>86354</v>
+        <v>42723</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>96896</v>
+        <v>75596</v>
       </c>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="23">
-        <v>41425</v>
+      <c r="A7" t="s" s="18">
+        <v>30</v>
       </c>
       <c r="B7" s="11">
         <f t="shared" si="0"/>
-        <v>96974</v>
+        <v>45686</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="0"/>
-        <v>68729</v>
+        <v>98069</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>52967</v>
+        <v>46461</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>89486</v>
+        <v>71309</v>
       </c>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="23">
-        <v>41455</v>
+      <c r="A8" t="s" s="18">
+        <v>31</v>
       </c>
       <c r="B8" s="11">
         <f t="shared" si="0"/>
-        <v>39231</v>
+        <v>15322</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="0"/>
-        <v>57552</v>
+        <v>19134</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>54384</v>
+        <v>25678</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>54403</v>
+        <v>78473</v>
       </c>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="23">
-        <v>41486</v>
+      <c r="A9" t="s" s="18">
+        <v>32</v>
       </c>
       <c r="B9" s="11">
         <f t="shared" si="0"/>
-        <v>86034</v>
+        <v>58742</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="0"/>
-        <v>43642</v>
+        <v>94672</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>23431</v>
+        <v>54769</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>35750</v>
+        <v>35284</v>
       </c>
     </row>
     <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="23">
-        <v>41517</v>
+      <c r="A10" t="s" s="18">
+        <v>33</v>
       </c>
       <c r="B10" s="11">
         <f t="shared" si="0"/>
-        <v>62667</v>
+        <v>85111</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="0"/>
-        <v>76337</v>
+        <v>99336</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>59033</v>
+        <v>19755</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>61482</v>
+        <v>29621</v>
       </c>
     </row>
     <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="23">
-        <v>41547</v>
+      <c r="A11" t="s" s="18">
+        <v>34</v>
       </c>
       <c r="B11" s="11">
         <f t="shared" si="0"/>
-        <v>70494</v>
+        <v>66006</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="0"/>
-        <v>33188</v>
+        <v>48579</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>83031</v>
+        <v>91152</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>10576</v>
+        <v>41972</v>
       </c>
     </row>
     <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="23">
-        <v>41578</v>
+      <c r="A12" t="s" s="18">
+        <v>35</v>
       </c>
       <c r="B12" s="11">
         <f t="shared" si="0"/>
-        <v>57778</v>
+        <v>29723</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
-        <v>39627</v>
+        <v>39471</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>11283</v>
+        <v>30699</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>91479</v>
+        <v>71916</v>
       </c>
     </row>
     <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="23">
-        <v>41608</v>
+      <c r="A13" t="s" s="18">
+        <v>36</v>
       </c>
       <c r="B13" s="11">
         <f t="shared" si="0"/>
-        <v>29388</v>
+        <v>80263</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="0"/>
-        <v>43234</v>
+        <v>28795</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>96353</v>
+        <v>41945</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>82639</v>
+        <v>83802</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.3516" style="22" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="22" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="22" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="22" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="22" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.55" customHeight="1">
+      <c r="A1" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s" s="13">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s" s="13">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s" s="13">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s" s="13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" ht="20.55" customHeight="1">
+      <c r="A2" t="s" s="15">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s" s="23">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9">
+        <v>12000</v>
+      </c>
+      <c r="E2" s="9">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="3" ht="20.35" customHeight="1">
+      <c r="A3" t="s" s="18">
+        <v>9</v>
+      </c>
+      <c r="B3" s="11">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
+        <v>21000</v>
+      </c>
+      <c r="E3" s="4">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="4" ht="20.35" customHeight="1">
+      <c r="A4" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="B4" s="11">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>34000</v>
+      </c>
+      <c r="E4" s="4">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="5" ht="20.35" customHeight="1">
+      <c r="A5" t="s" s="18">
+        <v>40</v>
+      </c>
+      <c r="B5" s="11">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>32000</v>
+      </c>
+      <c r="E5" s="4">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="6" ht="20.35" customHeight="1">
+      <c r="A6" t="s" s="18">
+        <v>41</v>
+      </c>
+      <c r="B6" s="11">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4">
+        <v>14000</v>
+      </c>
+      <c r="E6" s="4">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="7" ht="20.35" customHeight="1">
+      <c r="A7" t="s" s="18">
+        <v>42</v>
+      </c>
+      <c r="B7" s="11">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>17000</v>
+      </c>
+      <c r="E7" s="4">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="8" ht="20.35" customHeight="1">
+      <c r="A8" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="B8" s="11">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>24000</v>
+      </c>
+      <c r="E8" s="4">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="A9" t="s" s="18">
+        <v>16</v>
+      </c>
+      <c r="B9" s="11">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4">
+        <v>26000</v>
+      </c>
+      <c r="E9" s="4">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="10" ht="20.35" customHeight="1">
+      <c r="A10" t="s" s="18">
+        <v>43</v>
+      </c>
+      <c r="B10" s="11">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>8000</v>
+      </c>
+      <c r="E10" s="4">
+        <v>7000</v>
       </c>
     </row>
   </sheetData>

--- a/recursos/datos.xlsx
+++ b/recursos/datos.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="1"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="rId4"/>
-    <sheet name="Hoja 2" sheetId="2" r:id="rId5"/>
-    <sheet name="Hoja 3" sheetId="3" r:id="rId6"/>
-    <sheet name="Hoja 4" sheetId="4" r:id="rId7"/>
-    <sheet name="Hoja 5" sheetId="5" r:id="rId8"/>
-    <sheet name="Hoja 6" sheetId="6" r:id="rId9"/>
-  </sheets>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
+    <s:sheet name="Hoja 2" sheetId="2" r:id="rId2"/>
+    <s:sheet name="Hoja 3" sheetId="3" r:id="rId3"/>
+    <s:sheet name="Hoja 4" sheetId="4" r:id="rId4"/>
+    <s:sheet name="Hoja 5" sheetId="5" r:id="rId5"/>
+    <s:sheet name="Hoja 6" sheetId="6" r:id="rId6"/>
+    <s:sheet name="Hoja 7" sheetId="7" r:id="rId7"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>X</t>
   </si>
@@ -150,35 +153,65 @@
   <si>
     <t>Ignacio</t>
   </si>
+  <si>
+    <t>Planta</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>Chihuahua</t>
+  </si>
+  <si>
+    <t>Monterrey</t>
+  </si>
+  <si>
+    <t>San Luis Potosí</t>
+  </si>
+  <si>
+    <t>Jalisco</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt formatCode="General" numFmtId="164"/>
   </numFmts>
   <fonts count="3">
     <font>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
     </font>
     <font>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <color indexed="8"/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
     </font>
     <font>
+      <name val="Helvetica"/>
+      <family val="2"/>
       <b val="1"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -311,89 +344,97 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="28">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="3" fontId="2" numFmtId="164" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="2" numFmtId="164" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="2" numFmtId="164" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="3" fillId="3" fontId="2" numFmtId="49" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="2" numFmtId="49" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="2" numFmtId="164" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="ff000000"/>
@@ -1498,247 +1539,497 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G22"/>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:pageSetUpPr fitToPage="1"/>
+  </s:sheetPr>
+  <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView defaultGridColor="1" showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="24" width="16.3516"/>
+    <col customWidth="1" max="2" min="2" style="24" width="16.3516"/>
+    <col customWidth="1" max="3" min="3" style="24" width="16.3516"/>
+    <col customWidth="1" max="4" min="4" style="24" width="16.3516"/>
+    <col customWidth="1" max="5" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="6" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="7" min="7" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="8" style="24" width="16.3516"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.35" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row customHeight="1" ht="20.35" r="1" s="27" spans="1:256">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" ht="20.35" customHeight="1">
-      <c r="A2" s="4">
+      <c r="C1" s="4" t="n"/>
+      <c r="D1" s="4" t="n"/>
+      <c r="E1" s="4" t="n"/>
+      <c r="F1" s="4" t="n"/>
+      <c r="G1" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="2" s="27" spans="1:256">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" s="4">
+      <c r="C2" s="4" t="n"/>
+      <c r="D2" s="4" t="n"/>
+      <c r="E2" s="4" t="n"/>
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="3" s="27" spans="1:256">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="4">
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="4" s="27" spans="1:256">
+      <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="4">
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="4" t="n"/>
+      <c r="F4" s="4" t="n"/>
+      <c r="G4" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="5" s="27" spans="1:256">
+      <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="4" t="n"/>
+      <c r="F5" s="4" t="n"/>
+      <c r="G5" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="6" s="27" spans="1:256">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="4" t="n"/>
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="7" s="27" spans="1:256">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="4" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="8" s="27" spans="1:256">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="4" t="n"/>
+      <c r="C8" s="4" t="n"/>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="9" s="27" spans="1:256">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="4" t="n"/>
+      <c r="C9" s="4" t="n"/>
+      <c r="D9" s="4" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="10" s="27" spans="1:256">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="4" t="n"/>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="11" s="27" spans="1:256">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="4" t="n"/>
+      <c r="C11" s="4" t="n"/>
+      <c r="D11" s="4" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="12" s="27" spans="1:256">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="4" t="n"/>
+      <c r="C12" s="4" t="n"/>
+      <c r="D12" s="4" t="n"/>
+      <c r="E12" s="4" t="n"/>
+      <c r="F12" s="4" t="n"/>
+      <c r="G12" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="13" s="27" spans="1:256">
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="4" t="n"/>
+      <c r="C13" s="4" t="n"/>
+      <c r="D13" s="4" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="14" s="27" spans="1:256">
+      <c r="A14" s="4" t="n"/>
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="4" t="n"/>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="4" t="n"/>
+      <c r="F14" s="4" t="n"/>
+      <c r="G14" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="15" s="27" spans="1:256">
+      <c r="A15" s="4" t="n"/>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="4" t="n"/>
+      <c r="D15" s="4" t="n"/>
+      <c r="E15" s="4" t="n"/>
+      <c r="F15" s="4" t="n"/>
+      <c r="G15" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="16" s="27" spans="1:256">
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="4" t="n"/>
+      <c r="C16" s="4" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="4" t="n"/>
+      <c r="G16" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="17" s="27" spans="1:256">
+      <c r="A17" s="4" t="n"/>
+      <c r="B17" s="4" t="n"/>
+      <c r="C17" s="4" t="n"/>
+      <c r="D17" s="4" t="n"/>
+      <c r="E17" s="4" t="n"/>
+      <c r="F17" s="4" t="n"/>
+      <c r="G17" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="18" s="27" spans="1:256">
+      <c r="A18" s="4" t="n"/>
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="4" t="n"/>
+      <c r="D18" s="4" t="n"/>
+      <c r="E18" s="4" t="n"/>
+      <c r="F18" s="4" t="n"/>
+      <c r="G18" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="19" s="27" spans="1:256">
+      <c r="A19" s="4" t="n"/>
+      <c r="B19" s="4" t="n"/>
+      <c r="C19" s="4" t="n"/>
+      <c r="D19" s="4" t="n"/>
+      <c r="E19" s="4" t="n"/>
+      <c r="F19" s="4" t="n"/>
+      <c r="G19" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="20" s="27" spans="1:256">
+      <c r="A20" s="4" t="n"/>
+      <c r="B20" s="4" t="n"/>
+      <c r="C20" s="4" t="n"/>
+      <c r="D20" s="4" t="n"/>
+      <c r="E20" s="4" t="n"/>
+      <c r="F20" s="4" t="n"/>
+      <c r="G20" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="21" s="27" spans="1:256">
+      <c r="A21" s="4" t="n"/>
+      <c r="B21" s="4" t="n"/>
+      <c r="C21" s="4" t="n"/>
+      <c r="D21" s="4" t="n"/>
+      <c r="E21" s="4" t="n"/>
+      <c r="F21" s="4" t="n"/>
+      <c r="G21" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="22" s="27" spans="1:256">
+      <c r="A22" s="4" t="n"/>
+      <c r="B22" s="4" t="n"/>
+      <c r="C22" s="4" t="n"/>
+      <c r="D22" s="4" t="n"/>
+      <c r="E22" s="4" t="n"/>
+      <c r="F22" s="4" t="n"/>
+      <c r="G22" s="4" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" scale="100" useFirstPageNumber="0"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1746,311 +2037,563 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:D16"/>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:pageSetUpPr fitToPage="1"/>
+  </s:sheetPr>
+  <dimension ref="A1:IV16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    <sheetView defaultGridColor="1" showGridLines="0" workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="5" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="5" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="24" width="16.3516"/>
+    <col customWidth="1" max="2" min="2" style="24" width="16.3516"/>
+    <col customWidth="1" max="3" min="3" style="24" width="16.3516"/>
+    <col customWidth="1" max="4" min="4" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="5" style="24" width="16.3516"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.55" customHeight="1">
-      <c r="A1" t="s" s="6">
+    <row customHeight="1" ht="20.55" r="1" s="27" spans="1:256">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="6">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="6">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="6">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" s="7">
+    <row customHeight="1" ht="20.55" r="2" s="27" spans="1:256">
+      <c r="A2" s="7" t="n">
         <v>-3.5</v>
       </c>
       <c r="B2" s="8">
         <f>SIN(A2)</f>
-        <v>0.3507832276896198</v>
-      </c>
-      <c r="C2" s="9">
+        <v/>
+      </c>
+      <c r="C2" s="17">
         <f>COS(A2)</f>
-        <v>-0.9364566872907963</v>
-      </c>
-      <c r="D2" s="9">
+        <v/>
+      </c>
+      <c r="D2" s="17">
         <f>1-B2^2</f>
-        <v>0.8769511271716524</v>
-      </c>
-    </row>
-    <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" s="10">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="3" s="27" spans="1:256">
+      <c r="A3" s="25">
         <f>A2+0.5</f>
-        <v>-3</v>
-      </c>
-      <c r="B3" s="11">
+        <v/>
+      </c>
+      <c r="B3" s="26">
         <f>SIN(A3)</f>
-        <v>-0.1411200080598672</v>
+        <v/>
       </c>
       <c r="C3" s="4">
         <f>COS(A3)</f>
-        <v>-0.9899924966004454</v>
+        <v/>
       </c>
       <c r="D3" s="4">
         <f>1-B3^2</f>
-        <v>0.980085143325183</v>
-      </c>
-    </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="10">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="4" s="27" spans="1:256">
+      <c r="A4" s="25">
         <f>A3+0.5</f>
-        <v>-2.5</v>
-      </c>
-      <c r="B4" s="11">
+        <v/>
+      </c>
+      <c r="B4" s="26">
         <f>SIN(A4)</f>
-        <v>-0.5984721441039564</v>
+        <v/>
       </c>
       <c r="C4" s="4">
         <f>COS(A4)</f>
-        <v>-0.8011436155469337</v>
+        <v/>
       </c>
       <c r="D4" s="4">
         <f>1-B4^2</f>
-        <v>0.6418310927316132</v>
-      </c>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="10">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="5" s="27" spans="1:256">
+      <c r="A5" s="25">
         <f>A4+0.5</f>
-        <v>-2</v>
-      </c>
-      <c r="B5" s="11">
+        <v/>
+      </c>
+      <c r="B5" s="26">
         <f>SIN(A5)</f>
-        <v>-0.9092974268256817</v>
+        <v/>
       </c>
       <c r="C5" s="4">
         <f>COS(A5)</f>
-        <v>-0.4161468365471424</v>
+        <v/>
       </c>
       <c r="D5" s="4">
         <f>1-B5^2</f>
-        <v>0.173178189568194</v>
-      </c>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="10">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="6" s="27" spans="1:256">
+      <c r="A6" s="25">
         <f>A5+0.5</f>
-        <v>-1.5</v>
-      </c>
-      <c r="B6" s="11">
+        <v/>
+      </c>
+      <c r="B6" s="26">
         <f>SIN(A6)</f>
-        <v>-0.9974949866040544</v>
+        <v/>
       </c>
       <c r="C6" s="4">
         <f>COS(A6)</f>
-        <v>0.07073720166770291</v>
+        <v/>
       </c>
       <c r="D6" s="4">
         <f>1-B6^2</f>
-        <v>0.005003751699777292</v>
-      </c>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="10">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="7" s="27" spans="1:256">
+      <c r="A7" s="25">
         <f>A6+0.5</f>
-        <v>-1</v>
-      </c>
-      <c r="B7" s="11">
+        <v/>
+      </c>
+      <c r="B7" s="26">
         <f>SIN(A7)</f>
-        <v>-0.8414709848078965</v>
+        <v/>
       </c>
       <c r="C7" s="4">
         <f>COS(A7)</f>
-        <v>0.5403023058681398</v>
+        <v/>
       </c>
       <c r="D7" s="4">
         <f>1-B7^2</f>
-        <v>0.2919265817264288</v>
-      </c>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="10">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="8" s="27" spans="1:256">
+      <c r="A8" s="25">
         <f>A7+0.5</f>
-        <v>-0.5</v>
-      </c>
-      <c r="B8" s="11">
+        <v/>
+      </c>
+      <c r="B8" s="26">
         <f>SIN(A8)</f>
-        <v>-0.479425538604203</v>
+        <v/>
       </c>
       <c r="C8" s="4">
         <f>COS(A8)</f>
-        <v>0.8775825618903728</v>
+        <v/>
       </c>
       <c r="D8" s="4">
         <f>1-B8^2</f>
-        <v>0.7701511529340699</v>
-      </c>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="10">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="9" s="27" spans="1:256">
+      <c r="A9" s="25">
         <f>A8+0.5</f>
-        <v>0</v>
-      </c>
-      <c r="B9" s="11">
+        <v/>
+      </c>
+      <c r="B9" s="26">
         <f>SIN(A9)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C9" s="4">
         <f>COS(A9)</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="D9" s="4">
         <f>1-B9^2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="10">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="10" s="27" spans="1:256">
+      <c r="A10" s="25">
         <f>A9+0.5</f>
-        <v>0.5</v>
-      </c>
-      <c r="B10" s="11">
+        <v/>
+      </c>
+      <c r="B10" s="26">
         <f>SIN(A10)</f>
-        <v>0.479425538604203</v>
+        <v/>
       </c>
       <c r="C10" s="4">
         <f>COS(A10)</f>
-        <v>0.8775825618903728</v>
+        <v/>
       </c>
       <c r="D10" s="4">
         <f>1-B10^2</f>
-        <v>0.7701511529340699</v>
-      </c>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="10">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="11" s="27" spans="1:256">
+      <c r="A11" s="25">
         <f>A10+0.5</f>
-        <v>1</v>
-      </c>
-      <c r="B11" s="11">
+        <v/>
+      </c>
+      <c r="B11" s="26">
         <f>SIN(A11)</f>
-        <v>0.8414709848078965</v>
+        <v/>
       </c>
       <c r="C11" s="4">
         <f>COS(A11)</f>
-        <v>0.5403023058681398</v>
+        <v/>
       </c>
       <c r="D11" s="4">
         <f>1-B11^2</f>
-        <v>0.2919265817264288</v>
-      </c>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="10">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="12" s="27" spans="1:256">
+      <c r="A12" s="25">
         <f>A11+0.5</f>
-        <v>1.5</v>
-      </c>
-      <c r="B12" s="11">
+        <v/>
+      </c>
+      <c r="B12" s="26">
         <f>SIN(A12)</f>
-        <v>0.9974949866040544</v>
+        <v/>
       </c>
       <c r="C12" s="4">
         <f>COS(A12)</f>
-        <v>0.07073720166770291</v>
+        <v/>
       </c>
       <c r="D12" s="4">
         <f>1-B12^2</f>
-        <v>0.005003751699777292</v>
-      </c>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="10">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="13" s="27" spans="1:256">
+      <c r="A13" s="25">
         <f>A12+0.5</f>
-        <v>2</v>
-      </c>
-      <c r="B13" s="11">
+        <v/>
+      </c>
+      <c r="B13" s="26">
         <f>SIN(A13)</f>
-        <v>0.9092974268256817</v>
+        <v/>
       </c>
       <c r="C13" s="4">
         <f>COS(A13)</f>
-        <v>-0.4161468365471424</v>
+        <v/>
       </c>
       <c r="D13" s="4">
         <f>1-B13^2</f>
-        <v>0.173178189568194</v>
-      </c>
-    </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="10">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="14" s="27" spans="1:256">
+      <c r="A14" s="25">
         <f>A13+0.5</f>
-        <v>2.5</v>
-      </c>
-      <c r="B14" s="11">
+        <v/>
+      </c>
+      <c r="B14" s="26">
         <f>SIN(A14)</f>
-        <v>0.5984721441039564</v>
+        <v/>
       </c>
       <c r="C14" s="4">
         <f>COS(A14)</f>
-        <v>-0.8011436155469337</v>
+        <v/>
       </c>
       <c r="D14" s="4">
         <f>1-B14^2</f>
-        <v>0.6418310927316132</v>
-      </c>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="10">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="15" s="27" spans="1:256">
+      <c r="A15" s="25">
         <f>A14+0.5</f>
-        <v>3</v>
-      </c>
-      <c r="B15" s="11">
+        <v/>
+      </c>
+      <c r="B15" s="26">
         <f>SIN(A15)</f>
-        <v>0.1411200080598672</v>
+        <v/>
       </c>
       <c r="C15" s="4">
         <f>COS(A15)</f>
-        <v>-0.9899924966004454</v>
+        <v/>
       </c>
       <c r="D15" s="4">
         <f>1-B15^2</f>
-        <v>0.980085143325183</v>
-      </c>
-    </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="10">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="16" s="27" spans="1:256">
+      <c r="A16" s="25">
         <f>A15+0.5</f>
-        <v>3.5</v>
-      </c>
-      <c r="B16" s="11">
+        <v/>
+      </c>
+      <c r="B16" s="26">
         <f>SIN(A16)</f>
-        <v>-0.3507832276896198</v>
+        <v/>
       </c>
       <c r="C16" s="4">
         <f>COS(A16)</f>
-        <v>-0.9364566872907963</v>
+        <v/>
       </c>
       <c r="D16" s="4">
         <f>1-B16^2</f>
-        <v>0.8769511271716524</v>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" scale="100" useFirstPageNumber="0"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2058,139 +2601,390 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:pageSetUpPr fitToPage="1"/>
+  </s:sheetPr>
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    <sheetView defaultGridColor="1" showGridLines="0" workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="12" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="12" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="12" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="12" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="12" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="24" width="16.3516"/>
+    <col customWidth="1" max="2" min="2" style="24" width="16.3516"/>
+    <col customWidth="1" max="3" min="3" style="24" width="16.3516"/>
+    <col customWidth="1" max="4" min="4" style="24" width="16.3516"/>
+    <col customWidth="1" max="5" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.55" customHeight="1">
-      <c r="A1" t="s" s="13">
+    <row customHeight="1" ht="20.55" r="1" s="27" spans="1:256">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="15">
+      <c r="C1" s="14" t="n"/>
+      <c r="D1" s="14" t="n"/>
+      <c r="E1" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.55" r="2" s="27" spans="1:256">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s" s="16">
+      <c r="B2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" t="s" s="18">
+      <c r="C2" s="17" t="n"/>
+      <c r="D2" s="17" t="n"/>
+      <c r="E2" s="17" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="3" s="27" spans="1:256">
+      <c r="A3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="19">
+      <c r="B3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="18">
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="4" s="27" spans="1:256">
+      <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="19">
+      <c r="B4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" t="s" s="18">
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="5" s="27" spans="1:256">
+      <c r="A5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s" s="19">
+      <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="18">
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="6" s="27" spans="1:256">
+      <c r="A6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s" s="19">
+      <c r="B6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="18">
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="7" s="27" spans="1:256">
+      <c r="A7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s" s="19">
+      <c r="B7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" t="s" s="18">
+      <c r="C7" s="4" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="8" s="27" spans="1:256">
+      <c r="A8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s" s="19">
+      <c r="B8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" t="s" s="18">
+      <c r="C8" s="4" t="n"/>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="9" s="27" spans="1:256">
+      <c r="A9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="19">
+      <c r="B9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" t="s" s="18">
+      <c r="C9" s="4" t="n"/>
+      <c r="D9" s="4" t="n"/>
+      <c r="E9" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="10" s="27" spans="1:256">
+      <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s" s="19">
+      <c r="B10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="C10" s="4" t="n"/>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="4" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" scale="100" useFirstPageNumber="0"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2198,806 +2992,1057 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E60"/>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:pageSetUpPr fitToPage="1"/>
+  </s:sheetPr>
+  <dimension ref="A1:IV60"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    <sheetView defaultGridColor="1" showGridLines="0" workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="20" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="20" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="20" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="20" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="20" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="20" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="24" width="16.3516"/>
+    <col customWidth="1" max="2" min="2" style="24" width="16.3516"/>
+    <col customWidth="1" max="3" min="3" style="24" width="16.3516"/>
+    <col customWidth="1" max="4" min="4" style="24" width="16.3516"/>
+    <col customWidth="1" max="5" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.55" customHeight="1">
-      <c r="A1" t="s" s="13">
+    <row customHeight="1" ht="20.55" r="1" s="27" spans="1:256">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" s="7">
+      <c r="C1" s="14" t="n"/>
+      <c r="D1" s="14" t="n"/>
+      <c r="E1" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.55" r="2" s="27" spans="1:256">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="8">
-        <f t="shared" si="0" ref="B2:B60">RANDBETWEEN(1,4)</f>
-        <v>4</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" s="10">
+        <f ref="B2:B60" si="0" t="shared">RANDBETWEEN(1,4)</f>
+        <v/>
+      </c>
+      <c r="C2" s="17" t="n"/>
+      <c r="D2" s="17" t="n"/>
+      <c r="E2" s="17" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="3" s="27" spans="1:256">
+      <c r="A3" s="25">
         <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="10">
+        <v/>
+      </c>
+      <c r="B3" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="4" s="27" spans="1:256">
+      <c r="A4" s="25">
         <f>A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="10">
+        <v/>
+      </c>
+      <c r="B4" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="5" s="27" spans="1:256">
+      <c r="A5" s="25">
         <f>A4+1</f>
-        <v>4</v>
-      </c>
-      <c r="B5" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="10">
+        <v/>
+      </c>
+      <c r="B5" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="6" s="27" spans="1:256">
+      <c r="A6" s="25">
         <f>A5+1</f>
-        <v>5</v>
-      </c>
-      <c r="B6" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="10">
+        <v/>
+      </c>
+      <c r="B6" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="7" s="27" spans="1:256">
+      <c r="A7" s="25">
         <f>A6+1</f>
-        <v>6</v>
-      </c>
-      <c r="B7" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="10">
+        <v/>
+      </c>
+      <c r="B7" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C7" s="4" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="8" s="27" spans="1:256">
+      <c r="A8" s="25">
         <f>A7+1</f>
-        <v>7</v>
-      </c>
-      <c r="B8" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="10">
+        <v/>
+      </c>
+      <c r="B8" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C8" s="4" t="n"/>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="9" s="27" spans="1:256">
+      <c r="A9" s="25">
         <f>A8+1</f>
-        <v>8</v>
-      </c>
-      <c r="B9" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="10">
+        <v/>
+      </c>
+      <c r="B9" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C9" s="4" t="n"/>
+      <c r="D9" s="4" t="n"/>
+      <c r="E9" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="10" s="27" spans="1:256">
+      <c r="A10" s="25">
         <f>A9+1</f>
-        <v>9</v>
-      </c>
-      <c r="B10" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="10">
+        <v/>
+      </c>
+      <c r="B10" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C10" s="4" t="n"/>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="11" s="27" spans="1:256">
+      <c r="A11" s="25">
         <f>A10+1</f>
-        <v>10</v>
-      </c>
-      <c r="B11" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="10">
+        <v/>
+      </c>
+      <c r="B11" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C11" s="4" t="n"/>
+      <c r="D11" s="4" t="n"/>
+      <c r="E11" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="12" s="27" spans="1:256">
+      <c r="A12" s="25">
         <f>A11+1</f>
-        <v>11</v>
-      </c>
-      <c r="B12" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="10">
+        <v/>
+      </c>
+      <c r="B12" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C12" s="4" t="n"/>
+      <c r="D12" s="4" t="n"/>
+      <c r="E12" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="13" s="27" spans="1:256">
+      <c r="A13" s="25">
         <f>A12+1</f>
-        <v>12</v>
-      </c>
-      <c r="B13" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="10">
+        <v/>
+      </c>
+      <c r="B13" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C13" s="4" t="n"/>
+      <c r="D13" s="4" t="n"/>
+      <c r="E13" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="14" s="27" spans="1:256">
+      <c r="A14" s="25">
         <f>A13+1</f>
-        <v>13</v>
-      </c>
-      <c r="B14" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="10">
+        <v/>
+      </c>
+      <c r="B14" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C14" s="4" t="n"/>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="15" s="27" spans="1:256">
+      <c r="A15" s="25">
         <f>A14+1</f>
-        <v>14</v>
-      </c>
-      <c r="B15" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="10">
+        <v/>
+      </c>
+      <c r="B15" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C15" s="4" t="n"/>
+      <c r="D15" s="4" t="n"/>
+      <c r="E15" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="16" s="27" spans="1:256">
+      <c r="A16" s="25">
         <f>A15+1</f>
-        <v>15</v>
-      </c>
-      <c r="B16" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="10">
+        <v/>
+      </c>
+      <c r="B16" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C16" s="4" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="17" s="27" spans="1:256">
+      <c r="A17" s="25">
         <f>A16+1</f>
-        <v>16</v>
-      </c>
-      <c r="B17" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="10">
+        <v/>
+      </c>
+      <c r="B17" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C17" s="4" t="n"/>
+      <c r="D17" s="4" t="n"/>
+      <c r="E17" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="18" s="27" spans="1:256">
+      <c r="A18" s="25">
         <f>A17+1</f>
-        <v>17</v>
-      </c>
-      <c r="B18" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="10">
+        <v/>
+      </c>
+      <c r="B18" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C18" s="4" t="n"/>
+      <c r="D18" s="4" t="n"/>
+      <c r="E18" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="19" s="27" spans="1:256">
+      <c r="A19" s="25">
         <f>A18+1</f>
-        <v>18</v>
-      </c>
-      <c r="B19" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="10">
+        <v/>
+      </c>
+      <c r="B19" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C19" s="4" t="n"/>
+      <c r="D19" s="4" t="n"/>
+      <c r="E19" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="20" s="27" spans="1:256">
+      <c r="A20" s="25">
         <f>A19+1</f>
-        <v>19</v>
-      </c>
-      <c r="B20" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="10">
+        <v/>
+      </c>
+      <c r="B20" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C20" s="4" t="n"/>
+      <c r="D20" s="4" t="n"/>
+      <c r="E20" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="21" s="27" spans="1:256">
+      <c r="A21" s="25">
         <f>A20+1</f>
-        <v>20</v>
-      </c>
-      <c r="B21" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="10">
+        <v/>
+      </c>
+      <c r="B21" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C21" s="4" t="n"/>
+      <c r="D21" s="4" t="n"/>
+      <c r="E21" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="22" s="27" spans="1:256">
+      <c r="A22" s="25">
         <f>A21+1</f>
-        <v>21</v>
-      </c>
-      <c r="B22" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="10">
+        <v/>
+      </c>
+      <c r="B22" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C22" s="4" t="n"/>
+      <c r="D22" s="4" t="n"/>
+      <c r="E22" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="23" s="27" spans="1:256">
+      <c r="A23" s="25">
         <f>A22+1</f>
-        <v>22</v>
-      </c>
-      <c r="B23" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" s="10">
+        <v/>
+      </c>
+      <c r="B23" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C23" s="4" t="n"/>
+      <c r="D23" s="4" t="n"/>
+      <c r="E23" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="24" s="27" spans="1:256">
+      <c r="A24" s="25">
         <f>A23+1</f>
-        <v>23</v>
-      </c>
-      <c r="B24" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" ht="20.35" customHeight="1">
-      <c r="A25" s="10">
+        <v/>
+      </c>
+      <c r="B24" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C24" s="4" t="n"/>
+      <c r="D24" s="4" t="n"/>
+      <c r="E24" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="25" s="27" spans="1:256">
+      <c r="A25" s="25">
         <f>A24+1</f>
-        <v>24</v>
-      </c>
-      <c r="B25" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" ht="20.35" customHeight="1">
-      <c r="A26" s="10">
+        <v/>
+      </c>
+      <c r="B25" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C25" s="4" t="n"/>
+      <c r="D25" s="4" t="n"/>
+      <c r="E25" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="26" s="27" spans="1:256">
+      <c r="A26" s="25">
         <f>A25+1</f>
-        <v>25</v>
-      </c>
-      <c r="B26" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" ht="20.35" customHeight="1">
-      <c r="A27" s="10">
+        <v/>
+      </c>
+      <c r="B26" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C26" s="4" t="n"/>
+      <c r="D26" s="4" t="n"/>
+      <c r="E26" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="27" s="27" spans="1:256">
+      <c r="A27" s="25">
         <f>A26+1</f>
-        <v>26</v>
-      </c>
-      <c r="B27" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" ht="20.35" customHeight="1">
-      <c r="A28" s="10">
+        <v/>
+      </c>
+      <c r="B27" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C27" s="4" t="n"/>
+      <c r="D27" s="4" t="n"/>
+      <c r="E27" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="28" s="27" spans="1:256">
+      <c r="A28" s="25">
         <f>A27+1</f>
-        <v>27</v>
-      </c>
-      <c r="B28" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" ht="20.35" customHeight="1">
-      <c r="A29" s="10">
+        <v/>
+      </c>
+      <c r="B28" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C28" s="4" t="n"/>
+      <c r="D28" s="4" t="n"/>
+      <c r="E28" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="29" s="27" spans="1:256">
+      <c r="A29" s="25">
         <f>A28+1</f>
-        <v>28</v>
-      </c>
-      <c r="B29" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" ht="20.35" customHeight="1">
-      <c r="A30" s="10">
+        <v/>
+      </c>
+      <c r="B29" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C29" s="4" t="n"/>
+      <c r="D29" s="4" t="n"/>
+      <c r="E29" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="30" s="27" spans="1:256">
+      <c r="A30" s="25">
         <f>A29+1</f>
-        <v>29</v>
-      </c>
-      <c r="B30" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" ht="20.35" customHeight="1">
-      <c r="A31" s="10">
+        <v/>
+      </c>
+      <c r="B30" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C30" s="4" t="n"/>
+      <c r="D30" s="4" t="n"/>
+      <c r="E30" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="31" s="27" spans="1:256">
+      <c r="A31" s="25">
         <f>A30+1</f>
-        <v>30</v>
-      </c>
-      <c r="B31" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" ht="20.35" customHeight="1">
-      <c r="A32" s="10">
+        <v/>
+      </c>
+      <c r="B31" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C31" s="4" t="n"/>
+      <c r="D31" s="4" t="n"/>
+      <c r="E31" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="32" s="27" spans="1:256">
+      <c r="A32" s="25">
         <f>A31+1</f>
-        <v>31</v>
-      </c>
-      <c r="B32" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" ht="20.35" customHeight="1">
-      <c r="A33" s="10">
+        <v/>
+      </c>
+      <c r="B32" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C32" s="4" t="n"/>
+      <c r="D32" s="4" t="n"/>
+      <c r="E32" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="33" s="27" spans="1:256">
+      <c r="A33" s="25">
         <f>A32+1</f>
-        <v>32</v>
-      </c>
-      <c r="B33" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" ht="20.35" customHeight="1">
-      <c r="A34" s="10">
+        <v/>
+      </c>
+      <c r="B33" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C33" s="4" t="n"/>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="34" s="27" spans="1:256">
+      <c r="A34" s="25">
         <f>A33+1</f>
-        <v>33</v>
-      </c>
-      <c r="B34" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" ht="20.35" customHeight="1">
-      <c r="A35" s="10">
+        <v/>
+      </c>
+      <c r="B34" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C34" s="4" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="35" s="27" spans="1:256">
+      <c r="A35" s="25">
         <f>A34+1</f>
-        <v>34</v>
-      </c>
-      <c r="B35" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" ht="20.35" customHeight="1">
-      <c r="A36" s="10">
+        <v/>
+      </c>
+      <c r="B35" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C35" s="4" t="n"/>
+      <c r="D35" s="4" t="n"/>
+      <c r="E35" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="36" s="27" spans="1:256">
+      <c r="A36" s="25">
         <f>A35+1</f>
-        <v>35</v>
-      </c>
-      <c r="B36" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" ht="20.35" customHeight="1">
-      <c r="A37" s="10">
+        <v/>
+      </c>
+      <c r="B36" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C36" s="4" t="n"/>
+      <c r="D36" s="4" t="n"/>
+      <c r="E36" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="37" s="27" spans="1:256">
+      <c r="A37" s="25">
         <f>A36+1</f>
-        <v>36</v>
-      </c>
-      <c r="B37" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" ht="20.35" customHeight="1">
-      <c r="A38" s="10">
+        <v/>
+      </c>
+      <c r="B37" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C37" s="4" t="n"/>
+      <c r="D37" s="4" t="n"/>
+      <c r="E37" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="38" s="27" spans="1:256">
+      <c r="A38" s="25">
         <f>A37+1</f>
-        <v>37</v>
-      </c>
-      <c r="B38" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" ht="20.35" customHeight="1">
-      <c r="A39" s="10">
+        <v/>
+      </c>
+      <c r="B38" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C38" s="4" t="n"/>
+      <c r="D38" s="4" t="n"/>
+      <c r="E38" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="39" s="27" spans="1:256">
+      <c r="A39" s="25">
         <f>A38+1</f>
-        <v>38</v>
-      </c>
-      <c r="B39" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" ht="20.35" customHeight="1">
-      <c r="A40" s="10">
+        <v/>
+      </c>
+      <c r="B39" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C39" s="4" t="n"/>
+      <c r="D39" s="4" t="n"/>
+      <c r="E39" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="40" s="27" spans="1:256">
+      <c r="A40" s="25">
         <f>A39+1</f>
-        <v>39</v>
-      </c>
-      <c r="B40" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" ht="20.35" customHeight="1">
-      <c r="A41" s="10">
+        <v/>
+      </c>
+      <c r="B40" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C40" s="4" t="n"/>
+      <c r="D40" s="4" t="n"/>
+      <c r="E40" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="41" s="27" spans="1:256">
+      <c r="A41" s="25">
         <f>A40+1</f>
-        <v>40</v>
-      </c>
-      <c r="B41" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" ht="20.35" customHeight="1">
-      <c r="A42" s="10">
+        <v/>
+      </c>
+      <c r="B41" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C41" s="4" t="n"/>
+      <c r="D41" s="4" t="n"/>
+      <c r="E41" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="42" s="27" spans="1:256">
+      <c r="A42" s="25">
         <f>A41+1</f>
-        <v>41</v>
-      </c>
-      <c r="B42" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" ht="20.35" customHeight="1">
-      <c r="A43" s="10">
+        <v/>
+      </c>
+      <c r="B42" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C42" s="4" t="n"/>
+      <c r="D42" s="4" t="n"/>
+      <c r="E42" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="43" s="27" spans="1:256">
+      <c r="A43" s="25">
         <f>A42+1</f>
-        <v>42</v>
-      </c>
-      <c r="B43" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" ht="20.35" customHeight="1">
-      <c r="A44" s="10">
+        <v/>
+      </c>
+      <c r="B43" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C43" s="4" t="n"/>
+      <c r="D43" s="4" t="n"/>
+      <c r="E43" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="44" s="27" spans="1:256">
+      <c r="A44" s="25">
         <f>A43+1</f>
-        <v>43</v>
-      </c>
-      <c r="B44" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" ht="20.35" customHeight="1">
-      <c r="A45" s="10">
+        <v/>
+      </c>
+      <c r="B44" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C44" s="4" t="n"/>
+      <c r="D44" s="4" t="n"/>
+      <c r="E44" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="45" s="27" spans="1:256">
+      <c r="A45" s="25">
         <f>A44+1</f>
-        <v>44</v>
-      </c>
-      <c r="B45" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" ht="20.35" customHeight="1">
-      <c r="A46" s="10">
+        <v/>
+      </c>
+      <c r="B45" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C45" s="4" t="n"/>
+      <c r="D45" s="4" t="n"/>
+      <c r="E45" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="46" s="27" spans="1:256">
+      <c r="A46" s="25">
         <f>A45+1</f>
-        <v>45</v>
-      </c>
-      <c r="B46" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" ht="20.35" customHeight="1">
-      <c r="A47" s="10">
+        <v/>
+      </c>
+      <c r="B46" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C46" s="4" t="n"/>
+      <c r="D46" s="4" t="n"/>
+      <c r="E46" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="47" s="27" spans="1:256">
+      <c r="A47" s="25">
         <f>A46+1</f>
-        <v>46</v>
-      </c>
-      <c r="B47" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" ht="20.35" customHeight="1">
-      <c r="A48" s="10">
+        <v/>
+      </c>
+      <c r="B47" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C47" s="4" t="n"/>
+      <c r="D47" s="4" t="n"/>
+      <c r="E47" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="48" s="27" spans="1:256">
+      <c r="A48" s="25">
         <f>A47+1</f>
-        <v>47</v>
-      </c>
-      <c r="B48" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" ht="20.35" customHeight="1">
-      <c r="A49" s="10">
+        <v/>
+      </c>
+      <c r="B48" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C48" s="4" t="n"/>
+      <c r="D48" s="4" t="n"/>
+      <c r="E48" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="49" s="27" spans="1:256">
+      <c r="A49" s="25">
         <f>A48+1</f>
-        <v>48</v>
-      </c>
-      <c r="B49" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" ht="20.35" customHeight="1">
-      <c r="A50" s="10">
+        <v/>
+      </c>
+      <c r="B49" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C49" s="4" t="n"/>
+      <c r="D49" s="4" t="n"/>
+      <c r="E49" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="50" s="27" spans="1:256">
+      <c r="A50" s="25">
         <f>A49+1</f>
-        <v>49</v>
-      </c>
-      <c r="B50" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" ht="20.35" customHeight="1">
-      <c r="A51" s="10">
+        <v/>
+      </c>
+      <c r="B50" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C50" s="4" t="n"/>
+      <c r="D50" s="4" t="n"/>
+      <c r="E50" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="51" s="27" spans="1:256">
+      <c r="A51" s="25">
         <f>A50+1</f>
-        <v>50</v>
-      </c>
-      <c r="B51" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" ht="20.35" customHeight="1">
-      <c r="A52" s="10">
+        <v/>
+      </c>
+      <c r="B51" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C51" s="4" t="n"/>
+      <c r="D51" s="4" t="n"/>
+      <c r="E51" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="52" s="27" spans="1:256">
+      <c r="A52" s="25">
         <f>A51+1</f>
-        <v>51</v>
-      </c>
-      <c r="B52" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" ht="20.35" customHeight="1">
-      <c r="A53" s="10">
+        <v/>
+      </c>
+      <c r="B52" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C52" s="4" t="n"/>
+      <c r="D52" s="4" t="n"/>
+      <c r="E52" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="53" s="27" spans="1:256">
+      <c r="A53" s="25">
         <f>A52+1</f>
-        <v>52</v>
-      </c>
-      <c r="B53" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" ht="20.35" customHeight="1">
-      <c r="A54" s="10">
+        <v/>
+      </c>
+      <c r="B53" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C53" s="4" t="n"/>
+      <c r="D53" s="4" t="n"/>
+      <c r="E53" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="54" s="27" spans="1:256">
+      <c r="A54" s="25">
         <f>A53+1</f>
-        <v>53</v>
-      </c>
-      <c r="B54" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" ht="20.35" customHeight="1">
-      <c r="A55" s="10">
+        <v/>
+      </c>
+      <c r="B54" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C54" s="4" t="n"/>
+      <c r="D54" s="4" t="n"/>
+      <c r="E54" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="55" s="27" spans="1:256">
+      <c r="A55" s="25">
         <f>A54+1</f>
-        <v>54</v>
-      </c>
-      <c r="B55" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" ht="20.35" customHeight="1">
-      <c r="A56" s="10">
+        <v/>
+      </c>
+      <c r="B55" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C55" s="4" t="n"/>
+      <c r="D55" s="4" t="n"/>
+      <c r="E55" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="56" s="27" spans="1:256">
+      <c r="A56" s="25">
         <f>A55+1</f>
-        <v>55</v>
-      </c>
-      <c r="B56" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" ht="20.35" customHeight="1">
-      <c r="A57" s="10">
+        <v/>
+      </c>
+      <c r="B56" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C56" s="4" t="n"/>
+      <c r="D56" s="4" t="n"/>
+      <c r="E56" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="57" s="27" spans="1:256">
+      <c r="A57" s="25">
         <f>A56+1</f>
-        <v>56</v>
-      </c>
-      <c r="B57" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" ht="20.35" customHeight="1">
-      <c r="A58" s="10">
+        <v/>
+      </c>
+      <c r="B57" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C57" s="4" t="n"/>
+      <c r="D57" s="4" t="n"/>
+      <c r="E57" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="58" s="27" spans="1:256">
+      <c r="A58" s="25">
         <f>A57+1</f>
-        <v>57</v>
-      </c>
-      <c r="B58" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" ht="20.35" customHeight="1">
-      <c r="A59" s="10">
+        <v/>
+      </c>
+      <c r="B58" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C58" s="4" t="n"/>
+      <c r="D58" s="4" t="n"/>
+      <c r="E58" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="59" s="27" spans="1:256">
+      <c r="A59" s="25">
         <f>A58+1</f>
-        <v>58</v>
-      </c>
-      <c r="B59" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" ht="20.35" customHeight="1">
-      <c r="A60" s="10">
+        <v/>
+      </c>
+      <c r="B59" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C59" s="4" t="n"/>
+      <c r="D59" s="4" t="n"/>
+      <c r="E59" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="60" s="27" spans="1:256">
+      <c r="A60" s="25">
         <f>A59+1</f>
-        <v>59</v>
-      </c>
-      <c r="B60" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+        <v/>
+      </c>
+      <c r="B60" s="26">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="C60" s="4" t="n"/>
+      <c r="D60" s="4" t="n"/>
+      <c r="E60" s="4" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" scale="100" useFirstPageNumber="0"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3005,298 +4050,549 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E13"/>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:pageSetUpPr fitToPage="1"/>
+  </s:sheetPr>
+  <dimension ref="A1:IV13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    <sheetView defaultGridColor="1" showGridLines="0" workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="21" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="21" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="21" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="21" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="21" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="24" width="16.3516"/>
+    <col customWidth="1" max="2" min="2" style="24" width="16.3516"/>
+    <col customWidth="1" max="3" min="3" style="24" width="16.3516"/>
+    <col customWidth="1" max="4" min="4" style="24" width="16.3516"/>
+    <col customWidth="1" max="5" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.55" customHeight="1">
-      <c r="A1" t="s" s="13">
+    <row customHeight="1" ht="20.55" r="1" s="27" spans="1:256">
+      <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s" s="13">
+      <c r="C1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s" s="13">
+      <c r="D1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s" s="13">
+      <c r="E1" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="15">
+    <row customHeight="1" ht="20.55" r="2" s="27" spans="1:256">
+      <c r="A2" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="8">
-        <f t="shared" si="0" ref="B2:E13">RANDBETWEEN(10000,100000)</f>
-        <v>57623</v>
-      </c>
-      <c r="C2" s="9">
-        <f t="shared" si="0"/>
-        <v>35903</v>
-      </c>
-      <c r="D2" s="9">
-        <f t="shared" si="0"/>
-        <v>20710</v>
-      </c>
-      <c r="E2" s="9">
-        <f t="shared" si="0"/>
-        <v>81755</v>
-      </c>
-    </row>
-    <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" t="s" s="18">
+        <f ref="B2:E13" si="0" t="shared">RANDBETWEEN(10000,100000)</f>
+        <v/>
+      </c>
+      <c r="C2" s="17">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="D2" s="17">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+      <c r="E2" s="17">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="3" s="27" spans="1:256">
+      <c r="A3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="11">
-        <f t="shared" si="0"/>
-        <v>81135</v>
+      <c r="B3" s="26">
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="C3" s="4">
-        <f t="shared" si="0"/>
-        <v>37528</v>
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="D3" s="4">
-        <f t="shared" si="0"/>
-        <v>87553</v>
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="E3" s="4">
-        <f t="shared" si="0"/>
-        <v>63115</v>
-      </c>
-    </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="18">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="4" s="27" spans="1:256">
+      <c r="A4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="11">
-        <f t="shared" si="0"/>
-        <v>91043</v>
+      <c r="B4" s="26">
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="C4" s="4">
-        <f t="shared" si="0"/>
-        <v>93741</v>
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="D4" s="4">
-        <f t="shared" si="0"/>
-        <v>85419</v>
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="E4" s="4">
-        <f t="shared" si="0"/>
-        <v>48114</v>
-      </c>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" t="s" s="18">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="5" s="27" spans="1:256">
+      <c r="A5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="11">
-        <f t="shared" si="0"/>
-        <v>32988</v>
+      <c r="B5" s="26">
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="C5" s="4">
-        <f t="shared" si="0"/>
-        <v>51794</v>
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>68512</v>
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="E5" s="4">
-        <f t="shared" si="0"/>
-        <v>54110</v>
-      </c>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="18">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="6" s="27" spans="1:256">
+      <c r="A6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="11">
-        <f t="shared" si="0"/>
-        <v>33623</v>
+      <c r="B6" s="26">
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="0"/>
-        <v>68020</v>
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>42723</v>
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="E6" s="4">
-        <f t="shared" si="0"/>
-        <v>75596</v>
-      </c>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="18">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="7" s="27" spans="1:256">
+      <c r="A7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="11">
-        <f t="shared" si="0"/>
-        <v>45686</v>
+      <c r="B7" s="26">
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="0"/>
-        <v>98069</v>
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>46461</v>
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>71309</v>
-      </c>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" t="s" s="18">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="8" s="27" spans="1:256">
+      <c r="A8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="11">
-        <f t="shared" si="0"/>
-        <v>15322</v>
+      <c r="B8" s="26">
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="C8" s="4">
-        <f t="shared" si="0"/>
-        <v>19134</v>
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>25678</v>
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>78473</v>
-      </c>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" t="s" s="18">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="9" s="27" spans="1:256">
+      <c r="A9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="11">
-        <f t="shared" si="0"/>
-        <v>58742</v>
+      <c r="B9" s="26">
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="0"/>
-        <v>94672</v>
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>54769</v>
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>35284</v>
-      </c>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" t="s" s="18">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="10" s="27" spans="1:256">
+      <c r="A10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="11">
-        <f t="shared" si="0"/>
-        <v>85111</v>
+      <c r="B10" s="26">
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="0"/>
-        <v>99336</v>
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>19755</v>
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="E10" s="4">
-        <f t="shared" si="0"/>
-        <v>29621</v>
-      </c>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" t="s" s="18">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="11" s="27" spans="1:256">
+      <c r="A11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="11">
-        <f t="shared" si="0"/>
-        <v>66006</v>
+      <c r="B11" s="26">
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="0"/>
-        <v>48579</v>
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>91152</v>
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>41972</v>
-      </c>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" t="s" s="18">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="12" s="27" spans="1:256">
+      <c r="A12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="11">
-        <f t="shared" si="0"/>
-        <v>29723</v>
+      <c r="B12" s="26">
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="C12" s="4">
-        <f t="shared" si="0"/>
-        <v>39471</v>
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>30699</v>
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="0"/>
-        <v>71916</v>
-      </c>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" t="s" s="18">
+        <f si="0" t="shared"/>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="13" s="27" spans="1:256">
+      <c r="A13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="11">
-        <f t="shared" si="0"/>
-        <v>80263</v>
+      <c r="B13" s="26">
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="0"/>
-        <v>28795</v>
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="0"/>
-        <v>41945</v>
+        <f si="0" t="shared"/>
+        <v/>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>83802</v>
+        <f si="0" t="shared"/>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" scale="100" useFirstPageNumber="0"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3304,199 +4600,898 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:pageSetUpPr fitToPage="1"/>
+  </s:sheetPr>
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    <sheetView defaultGridColor="1" showGridLines="0" workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="22" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="22" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="22" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="22" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="22" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="22" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="24" width="16.3516"/>
+    <col customWidth="1" max="2" min="2" style="24" width="16.3516"/>
+    <col customWidth="1" max="3" min="3" style="24" width="16.3516"/>
+    <col customWidth="1" max="4" min="4" style="24" width="16.3516"/>
+    <col customWidth="1" max="5" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.55" customHeight="1">
-      <c r="A1" t="s" s="13">
+    <row customHeight="1" ht="20.55" r="1" s="27" spans="1:256">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s" s="13">
+      <c r="C1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s" s="13">
+      <c r="D1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s" s="13">
+      <c r="E1" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="15">
+    <row customHeight="1" ht="20.55" r="2" s="27" spans="1:256">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="C2" t="s" s="23">
+      <c r="C2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="17" t="n">
         <v>12000</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="17" t="n">
         <v>9000</v>
       </c>
     </row>
-    <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" t="s" s="18">
+    <row customHeight="1" ht="20.35" r="3" s="27" spans="1:256">
+      <c r="A3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="26" t="n">
         <v>34</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="4" t="n">
         <v>21000</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="4" t="n">
         <v>12000</v>
       </c>
     </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="18">
+    <row customHeight="1" ht="20.35" r="4" s="27" spans="1:256">
+      <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="26" t="n">
         <v>45</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="4" t="n">
         <v>34000</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="4" t="n">
         <v>30000</v>
       </c>
     </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" t="s" s="18">
+    <row customHeight="1" ht="20.35" r="5" s="27" spans="1:256">
+      <c r="A5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="26" t="n">
         <v>65</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="4" t="n">
         <v>32000</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="4" t="n">
         <v>24000</v>
       </c>
     </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="18">
+    <row customHeight="1" ht="20.35" r="6" s="27" spans="1:256">
+      <c r="A6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="26" t="n">
         <v>54</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4" t="n">
         <v>14000</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="4" t="n">
         <v>13000</v>
       </c>
     </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="18">
+    <row customHeight="1" ht="20.35" r="7" s="27" spans="1:256">
+      <c r="A7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="26" t="n">
         <v>43</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="4" t="n">
         <v>17000</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="4" t="n">
         <v>11000</v>
       </c>
     </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" t="s" s="18">
+    <row customHeight="1" ht="20.35" r="8" s="27" spans="1:256">
+      <c r="A8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="26" t="n">
         <v>32</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="4" t="n">
         <v>24000</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="4" t="n">
         <v>8000</v>
       </c>
     </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" t="s" s="18">
+    <row customHeight="1" ht="20.35" r="9" s="27" spans="1:256">
+      <c r="A9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="26" t="n">
         <v>21</v>
       </c>
-      <c r="C9" t="s" s="2">
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="4" t="n">
         <v>26000</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="4" t="n">
         <v>16000</v>
       </c>
     </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" t="s" s="18">
+    <row customHeight="1" ht="20.35" r="10" s="27" spans="1:256">
+      <c r="A10" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="26" t="n">
         <v>12</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="4" t="n">
         <v>8000</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="4" t="n">
         <v>7000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" scale="100" useFirstPageNumber="0"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:pageSetUpPr fitToPage="1"/>
+  </s:sheetPr>
+  <dimension ref="A1:IV11"/>
+  <sheetViews>
+    <sheetView defaultGridColor="1" showGridLines="0" workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="24" width="16.3516"/>
+    <col customWidth="1" max="2" min="2" style="24" width="16.3516"/>
+    <col customWidth="1" max="3" min="3" style="24" width="16.3516"/>
+    <col customWidth="1" max="4" min="4" style="24" width="16.3516"/>
+    <col customWidth="1" max="5" min="5" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+    <col customWidth="1" max="256" min="6" style="24" width="16.3516"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="20.55" r="1" s="27" spans="1:256">
+      <c r="A1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.55" r="2" s="27" spans="1:256">
+      <c r="A2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>123</v>
+      </c>
+      <c r="C2" s="17" t="n">
+        <v>456</v>
+      </c>
+      <c r="D2" s="17" t="n">
+        <v>789</v>
+      </c>
+      <c r="E2" s="17" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="3" s="27" spans="1:256">
+      <c r="A3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="26" t="n">
+        <v>436</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>423</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>142</v>
+      </c>
+      <c r="E3" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="4" s="27" spans="1:256">
+      <c r="A4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="26" t="n">
+        <v>135</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>236</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>231</v>
+      </c>
+      <c r="E4" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="5" s="27" spans="1:256">
+      <c r="A5" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="26" t="n">
+        <v>165</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>257</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>321</v>
+      </c>
+      <c r="E5" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="6" s="27" spans="1:256">
+      <c r="A6" s="25" t="n"/>
+      <c r="B6" s="26" t="n"/>
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="20.35" r="7" s="27" spans="1:256">
+      <c r="A7" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="8" s="27" spans="1:256">
+      <c r="A8" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="26" t="n">
+        <v>789</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>456</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>123</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>1368</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="9" s="27" spans="1:256">
+      <c r="A9" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="26" t="n">
+        <v>142</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>423</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>436</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>1001</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.35" r="10" s="27" spans="1:256">
+      <c r="A10" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="26" t="n">
+        <v>231</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>236</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>135</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="11" s="27" spans="1:256">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="n">
+        <v>321</v>
+      </c>
+      <c r="C11" t="n">
+        <v>257</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165</v>
+      </c>
+      <c r="E11" t="n">
+        <v>743</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" scale="100" useFirstPageNumber="0"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
